--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200322.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200322.xlsx
@@ -677,7 +677,7 @@
     <t>境外输入</t>
   </si>
   <si>
-    <t>县区级</t>
+    <t>区县级</t>
   </si>
   <si>
     <t>西班牙</t>
@@ -10306,10 +10306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
@@ -10388,9 +10388,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10410,7 +10447,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10424,21 +10469,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10452,15 +10491,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10475,6 +10506,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -10483,50 +10522,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10551,13 +10551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10569,7 +10581,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10581,13 +10629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10605,7 +10659,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10617,121 +10725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10742,6 +10742,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10763,42 +10787,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -10828,163 +10832,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11364,8 +11364,8 @@
   <sheetPr/>
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:V45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -14404,8 +14404,11 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44 I46:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46:G1048576">
-      <formula1>INDIRECT($F46)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46:H1048576">
+      <formula1>INDIRECT($G46)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F46:F1048576">
+      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE44 AK44 AE45 AK45 AA46:AA1048576 AE2:AE43 AE46:AE1048576 AK2:AK43 AK46:AK1048576">
       <formula1>"手动,自动"</formula1>
@@ -14413,17 +14416,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG44 AM44 AG45 AM45 AG2:AG43 AG46:AG1048576 AM2:AM43 AM46:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B46:B1048576">
+      <formula1>"国家级,省级,城市级,区县级"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC46:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B46:B1048576">
-      <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46:H1048576">
-      <formula1>INDIRECT($G46)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F46:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46:G1048576">
+      <formula1>INDIRECT($F46)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200322.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200322.xlsx
@@ -10306,12 +10306,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -10388,14 +10388,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10404,28 +10404,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10438,8 +10423,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10461,8 +10455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10477,21 +10479,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10500,7 +10509,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10514,19 +10523,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10557,13 +10557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10575,25 +10575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10605,19 +10599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10635,13 +10635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10653,7 +10659,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10665,19 +10701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10689,49 +10725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10742,15 +10742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10765,30 +10756,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10818,16 +10785,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10842,149 +10809,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11364,8 +11364,8 @@
   <sheetPr/>
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -11376,8 +11376,8 @@
     <col min="4" max="4" width="15.7272727272727" style="12" customWidth="1"/>
     <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
     <col min="6" max="6" width="7.45454545454545" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.0909090909091" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.18181818181818" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.9621212121212" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.73484848484848" style="12" customWidth="1"/>
     <col min="9" max="9" width="10.9090909090909" style="14" customWidth="1"/>
     <col min="10" max="10" width="11" style="12" customWidth="1"/>
     <col min="11" max="11" width="10.7272727272727" style="14" customWidth="1"/>
@@ -14269,7 +14269,7 @@
     </row>
     <row r="44" s="12" customFormat="1" ht="30" spans="1:29">
       <c r="A44" s="19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>49</v>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="45" s="12" customFormat="1" ht="30" spans="1:29">
       <c r="A45" s="19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>92</v>
@@ -14401,8 +14401,17 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44 I46:R1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B46:B1048576">
+      <formula1>"国家级,省级,城市级,区县级"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE44 AK44 AE45 AK45 AA46:AA1048576 AE2:AE43 AE46:AE1048576 AK2:AK43 AK46:AK1048576">
+      <formula1>"手动,自动"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44 I46:N46 O46 P46:R46 I47:R1048576">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC46:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46:H1048576">
       <formula1>INDIRECT($G46)</formula1>
@@ -14410,17 +14419,8 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F46:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE44 AK44 AE45 AK45 AA46:AA1048576 AE2:AE43 AE46:AE1048576 AK2:AK43 AK46:AK1048576">
-      <formula1>"手动,自动"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG44 AM44 AG45 AM45 AG2:AG43 AG46:AG1048576 AM2:AM43 AM46:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B46:B1048576">
-      <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC46:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46:G1048576">
       <formula1>INDIRECT($F46)</formula1>

--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200322.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200322.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\chongqing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD81744-D4E1-4425-AD09-2156F0E9ED9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10304,16 +10310,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10386,151 +10388,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10549,194 +10408,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10744,249 +10417,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11042,63 +10476,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11356,63 +10747,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.54545454545455" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.72727272727273" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.52734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="15" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7272727272727" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.45454545454545" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.9621212121212" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.73484848484848" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.9090909090909" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.46875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.87890625" style="14" customWidth="1"/>
     <col min="10" max="10" width="11" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10.7272727272727" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.703125" style="14" customWidth="1"/>
     <col min="12" max="12" width="11" style="12" customWidth="1"/>
-    <col min="13" max="13" width="12.4545454545455" style="14" customWidth="1"/>
-    <col min="14" max="14" width="12.4545454545455" style="12" customWidth="1"/>
-    <col min="15" max="15" width="12.4545454545455" style="14" customWidth="1"/>
-    <col min="16" max="16" width="12.4545454545455" style="12" customWidth="1"/>
-    <col min="17" max="17" width="9.36363636363636" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.8181818181818" style="12" customWidth="1"/>
-    <col min="19" max="19" width="13.1818181818182" style="12" customWidth="1"/>
-    <col min="20" max="20" width="17.7272727272727" style="13" customWidth="1"/>
-    <col min="21" max="21" width="110.363636363636" style="14" customWidth="1"/>
-    <col min="22" max="22" width="50.7272727272727" style="14" customWidth="1"/>
-    <col min="23" max="23" width="15.4545454545455" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.0909090909091" style="12" customWidth="1"/>
-    <col min="25" max="25" width="17.4545454545455" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.7272727272727" style="12" customWidth="1"/>
-    <col min="27" max="27" width="11.6363636363636" style="12" customWidth="1"/>
-    <col min="28" max="28" width="19.0909090909091" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.4545454545455" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="13" max="13" width="12.46875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="12.46875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="12.46875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="12.46875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="9.3515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.8203125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="13.17578125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="17.703125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="110.3515625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="50.703125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="15.46875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.05859375" style="12" customWidth="1"/>
+    <col min="25" max="25" width="17.46875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.703125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="11.64453125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="19.05859375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90909090909091" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.9090909090909" style="12"/>
+    <col min="40" max="40" width="5.05859375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="16.2" spans="1:40">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15.75">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -11534,7 +10925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:36">
+    <row r="2" spans="1:40" ht="41.65">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -11577,7 +10968,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U2" s="22" t="s">
         <v>44</v>
@@ -11589,7 +10980,7 @@
       <c r="X2" s="19"/>
       <c r="Y2" s="23"/>
       <c r="Z2" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>46</v>
@@ -11604,7 +10995,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" ht="30" spans="1:29">
+    <row r="3" spans="1:40" ht="41.65">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11647,7 +11038,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>44</v>
@@ -11659,7 +11050,7 @@
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA3" s="19" t="s">
         <v>46</v>
@@ -11671,7 +11062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:29">
+    <row r="4" spans="1:40" ht="41.65">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11712,7 +11103,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>44</v>
@@ -11724,7 +11115,7 @@
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
       <c r="Z4" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA4" s="19" t="s">
         <v>46</v>
@@ -11736,7 +11127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:29">
+    <row r="5" spans="1:40" ht="41.65">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11777,7 +11168,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U5" s="22" t="s">
         <v>44</v>
@@ -11789,7 +11180,7 @@
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA5" s="19" t="s">
         <v>46</v>
@@ -11801,7 +11192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:29">
+    <row r="6" spans="1:40" ht="41.65">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11842,7 +11233,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U6" s="22" t="s">
         <v>44</v>
@@ -11854,7 +11245,7 @@
       <c r="X6" s="19"/>
       <c r="Y6" s="19"/>
       <c r="Z6" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA6" s="19" t="s">
         <v>46</v>
@@ -11866,7 +11257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:29">
+    <row r="7" spans="1:40" ht="41.65">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11907,7 +11298,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>44</v>
@@ -11919,7 +11310,7 @@
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA7" s="19" t="s">
         <v>46</v>
@@ -11931,7 +11322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:29">
+    <row r="8" spans="1:40" ht="41.65">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -11972,7 +11363,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>44</v>
@@ -11984,7 +11375,7 @@
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA8" s="19" t="s">
         <v>46</v>
@@ -11996,7 +11387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:29">
+    <row r="9" spans="1:40" ht="41.65">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -12037,7 +11428,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>44</v>
@@ -12049,7 +11440,7 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA9" s="19" t="s">
         <v>46</v>
@@ -12061,7 +11452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="1:29">
+    <row r="10" spans="1:40" ht="41.65">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -12104,7 +11495,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U10" s="22" t="s">
         <v>44</v>
@@ -12116,7 +11507,7 @@
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA10" s="19" t="s">
         <v>46</v>
@@ -12128,7 +11519,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:29">
+    <row r="11" spans="1:40" ht="41.65">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -12169,7 +11560,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U11" s="22" t="s">
         <v>44</v>
@@ -12181,7 +11572,7 @@
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA11" s="19" t="s">
         <v>46</v>
@@ -12193,7 +11584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:29">
+    <row r="12" spans="1:40" ht="41.65">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -12230,7 +11621,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U12" s="22" t="s">
         <v>44</v>
@@ -12242,7 +11633,7 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA12" s="19" t="s">
         <v>46</v>
@@ -12254,7 +11645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="1:29">
+    <row r="13" spans="1:40" ht="41.65">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -12295,7 +11686,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>44</v>
@@ -12307,7 +11698,7 @@
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA13" s="19" t="s">
         <v>46</v>
@@ -12319,7 +11710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:29">
+    <row r="14" spans="1:40" ht="41.65">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -12360,7 +11751,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U14" s="22" t="s">
         <v>44</v>
@@ -12372,7 +11763,7 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA14" s="19" t="s">
         <v>46</v>
@@ -12384,7 +11775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="1:29">
+    <row r="15" spans="1:40" ht="41.65">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -12425,7 +11816,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>44</v>
@@ -12437,7 +11828,7 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA15" s="19" t="s">
         <v>46</v>
@@ -12449,7 +11840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:29">
+    <row r="16" spans="1:40" ht="41.65">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -12490,7 +11881,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U16" s="22" t="s">
         <v>44</v>
@@ -12502,7 +11893,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA16" s="19" t="s">
         <v>46</v>
@@ -12514,7 +11905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:29">
+    <row r="17" spans="1:29" ht="41.65">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -12555,7 +11946,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U17" s="22" t="s">
         <v>44</v>
@@ -12567,7 +11958,7 @@
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA17" s="19" t="s">
         <v>46</v>
@@ -12579,7 +11970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="1:29">
+    <row r="18" spans="1:29" ht="41.65">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -12620,7 +12011,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U18" s="22" t="s">
         <v>44</v>
@@ -12632,7 +12023,7 @@
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA18" s="19" t="s">
         <v>46</v>
@@ -12644,7 +12035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="1:29">
+    <row r="19" spans="1:29" ht="41.65">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12681,7 +12072,7 @@
         <v>43</v>
       </c>
       <c r="T19" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U19" s="22" t="s">
         <v>44</v>
@@ -12693,7 +12084,7 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA19" s="19" t="s">
         <v>46</v>
@@ -12705,7 +12096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="1:29">
+    <row r="20" spans="1:29" ht="41.65">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -12746,7 +12137,7 @@
         <v>43</v>
       </c>
       <c r="T20" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U20" s="22" t="s">
         <v>44</v>
@@ -12758,7 +12149,7 @@
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA20" s="19" t="s">
         <v>46</v>
@@ -12770,7 +12161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="1:29">
+    <row r="21" spans="1:29" ht="41.65">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12811,7 +12202,7 @@
         <v>43</v>
       </c>
       <c r="T21" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U21" s="22" t="s">
         <v>44</v>
@@ -12823,7 +12214,7 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA21" s="19" t="s">
         <v>46</v>
@@ -12835,7 +12226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="30" spans="1:29">
+    <row r="22" spans="1:29" ht="41.65">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -12876,7 +12267,7 @@
         <v>43</v>
       </c>
       <c r="T22" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U22" s="22" t="s">
         <v>44</v>
@@ -12888,7 +12279,7 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA22" s="19" t="s">
         <v>46</v>
@@ -12900,7 +12291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:29">
+    <row r="23" spans="1:29" ht="41.65">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -12941,7 +12332,7 @@
         <v>43</v>
       </c>
       <c r="T23" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U23" s="22" t="s">
         <v>44</v>
@@ -12953,7 +12344,7 @@
       <c r="X23" s="19"/>
       <c r="Y23" s="19"/>
       <c r="Z23" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA23" s="19" t="s">
         <v>46</v>
@@ -12965,7 +12356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" ht="30" spans="1:29">
+    <row r="24" spans="1:29" ht="41.65">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -13006,7 +12397,7 @@
         <v>43</v>
       </c>
       <c r="T24" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U24" s="22" t="s">
         <v>44</v>
@@ -13018,7 +12409,7 @@
       <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA24" s="19" t="s">
         <v>46</v>
@@ -13030,7 +12421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" ht="30" spans="1:29">
+    <row r="25" spans="1:29" ht="41.65">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -13071,7 +12462,7 @@
         <v>43</v>
       </c>
       <c r="T25" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U25" s="22" t="s">
         <v>44</v>
@@ -13083,7 +12474,7 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA25" s="19" t="s">
         <v>46</v>
@@ -13095,7 +12486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="1:29">
+    <row r="26" spans="1:29" ht="41.65">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -13138,7 +12529,7 @@
         <v>43</v>
       </c>
       <c r="T26" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U26" s="22" t="s">
         <v>44</v>
@@ -13150,7 +12541,7 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA26" s="19" t="s">
         <v>46</v>
@@ -13162,7 +12553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="30" spans="1:29">
+    <row r="27" spans="1:29" ht="41.65">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -13203,7 +12594,7 @@
         <v>43</v>
       </c>
       <c r="T27" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U27" s="22" t="s">
         <v>44</v>
@@ -13215,7 +12606,7 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA27" s="19" t="s">
         <v>46</v>
@@ -13227,7 +12618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="30" spans="1:29">
+    <row r="28" spans="1:29" ht="41.65">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -13268,7 +12659,7 @@
         <v>43</v>
       </c>
       <c r="T28" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U28" s="22" t="s">
         <v>44</v>
@@ -13280,7 +12671,7 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA28" s="19" t="s">
         <v>46</v>
@@ -13292,7 +12683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" ht="30" spans="1:29">
+    <row r="29" spans="1:29" ht="41.65">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -13333,7 +12724,7 @@
         <v>43</v>
       </c>
       <c r="T29" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U29" s="22" t="s">
         <v>44</v>
@@ -13345,7 +12736,7 @@
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA29" s="19" t="s">
         <v>46</v>
@@ -13357,7 +12748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" ht="30" spans="1:29">
+    <row r="30" spans="1:29" ht="41.65">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -13398,7 +12789,7 @@
         <v>43</v>
       </c>
       <c r="T30" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U30" s="22" t="s">
         <v>44</v>
@@ -13410,7 +12801,7 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA30" s="19" t="s">
         <v>46</v>
@@ -13422,7 +12813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" ht="30" spans="1:29">
+    <row r="31" spans="1:29" ht="41.65">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -13463,7 +12854,7 @@
         <v>43</v>
       </c>
       <c r="T31" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U31" s="22" t="s">
         <v>44</v>
@@ -13475,7 +12866,7 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA31" s="19" t="s">
         <v>46</v>
@@ -13487,7 +12878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" ht="30" spans="1:29">
+    <row r="32" spans="1:29" ht="41.65">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -13528,7 +12919,7 @@
         <v>43</v>
       </c>
       <c r="T32" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U32" s="22" t="s">
         <v>44</v>
@@ -13540,7 +12931,7 @@
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA32" s="19" t="s">
         <v>46</v>
@@ -13552,7 +12943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" ht="30" spans="1:29">
+    <row r="33" spans="1:29" ht="41.65">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -13593,7 +12984,7 @@
         <v>43</v>
       </c>
       <c r="T33" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U33" s="22" t="s">
         <v>44</v>
@@ -13605,7 +12996,7 @@
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA33" s="19" t="s">
         <v>46</v>
@@ -13617,7 +13008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" ht="30" spans="1:29">
+    <row r="34" spans="1:29" ht="41.65">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -13658,7 +13049,7 @@
         <v>43</v>
       </c>
       <c r="T34" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U34" s="22" t="s">
         <v>44</v>
@@ -13670,7 +13061,7 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA34" s="19" t="s">
         <v>46</v>
@@ -13682,7 +13073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" ht="30" spans="1:29">
+    <row r="35" spans="1:29" ht="41.65">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -13723,7 +13114,7 @@
         <v>43</v>
       </c>
       <c r="T35" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U35" s="22" t="s">
         <v>44</v>
@@ -13735,7 +13126,7 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA35" s="19" t="s">
         <v>46</v>
@@ -13747,7 +13138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" ht="30" spans="1:29">
+    <row r="36" spans="1:29" ht="41.65">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -13788,7 +13179,7 @@
         <v>43</v>
       </c>
       <c r="T36" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U36" s="22" t="s">
         <v>44</v>
@@ -13800,7 +13191,7 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA36" s="19" t="s">
         <v>46</v>
@@ -13812,7 +13203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" ht="30" spans="1:29">
+    <row r="37" spans="1:29" ht="41.65">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -13853,7 +13244,7 @@
         <v>43</v>
       </c>
       <c r="T37" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U37" s="22" t="s">
         <v>44</v>
@@ -13865,7 +13256,7 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA37" s="19" t="s">
         <v>46</v>
@@ -13877,7 +13268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" ht="30" spans="1:29">
+    <row r="38" spans="1:29" ht="41.65">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -13918,7 +13309,7 @@
         <v>43</v>
       </c>
       <c r="T38" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U38" s="22" t="s">
         <v>44</v>
@@ -13930,7 +13321,7 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="Z38" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA38" s="19" t="s">
         <v>46</v>
@@ -13942,7 +13333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" ht="30" spans="1:29">
+    <row r="39" spans="1:29" ht="41.65">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -13983,7 +13374,7 @@
         <v>43</v>
       </c>
       <c r="T39" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U39" s="22" t="s">
         <v>44</v>
@@ -13995,7 +13386,7 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA39" s="19" t="s">
         <v>46</v>
@@ -14007,7 +13398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" ht="30" spans="1:29">
+    <row r="40" spans="1:29" ht="41.65">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -14048,7 +13439,7 @@
         <v>43</v>
       </c>
       <c r="T40" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U40" s="22" t="s">
         <v>44</v>
@@ -14060,7 +13451,7 @@
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="Z40" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA40" s="19" t="s">
         <v>46</v>
@@ -14072,7 +13463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" ht="30" spans="1:29">
+    <row r="41" spans="1:29" ht="41.65">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -14113,7 +13504,7 @@
         <v>43</v>
       </c>
       <c r="T41" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U41" s="22" t="s">
         <v>44</v>
@@ -14125,7 +13516,7 @@
       <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
       <c r="Z41" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA41" s="19" t="s">
         <v>46</v>
@@ -14137,7 +13528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" ht="30" spans="1:29">
+    <row r="42" spans="1:29" ht="41.65">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -14178,7 +13569,7 @@
         <v>43</v>
       </c>
       <c r="T42" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U42" s="22" t="s">
         <v>44</v>
@@ -14190,7 +13581,7 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
       <c r="Z42" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA42" s="19" t="s">
         <v>46</v>
@@ -14202,7 +13593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" ht="30" spans="1:29">
+    <row r="43" spans="1:29" ht="41.65">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -14243,7 +13634,7 @@
         <v>43</v>
       </c>
       <c r="T43" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U43" s="22" t="s">
         <v>44</v>
@@ -14255,7 +13646,7 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA43" s="19" t="s">
         <v>46</v>
@@ -14267,7 +13658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" s="12" customFormat="1" ht="30" spans="1:29">
+    <row r="44" spans="1:29" ht="41.65">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -14300,7 +13691,6 @@
         <v>1</v>
       </c>
       <c r="N44" s="19"/>
-      <c r="O44" s="14"/>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
@@ -14308,7 +13698,7 @@
         <v>43</v>
       </c>
       <c r="T44" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U44" s="22" t="s">
         <v>44</v>
@@ -14320,7 +13710,7 @@
       <c r="X44" s="19"/>
       <c r="Y44" s="19"/>
       <c r="Z44" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA44" s="19" t="s">
         <v>46</v>
@@ -14332,7 +13722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" s="12" customFormat="1" ht="30" spans="1:29">
+    <row r="45" spans="1:29" ht="41.65">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -14375,7 +13765,7 @@
         <v>43</v>
       </c>
       <c r="T45" s="21">
-        <v>43913.3854166667</v>
+        <v>43913.385416666701</v>
       </c>
       <c r="U45" s="22" t="s">
         <v>44</v>
@@ -14387,7 +13777,7 @@
       <c r="X45" s="19"/>
       <c r="Y45" s="19"/>
       <c r="Z45" s="21">
-        <v>43913.6354166667</v>
+        <v>43913.635416666701</v>
       </c>
       <c r="AA45" s="19" t="s">
         <v>46</v>
@@ -14400,53 +13790,60 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B46:B1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B46:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE44 AK44 AE45 AK45 AA46:AA1048576 AE2:AE43 AE46:AE1048576 AK2:AK43 AK46:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE44 AK44 AE45 AK45 AA46:AA1048576 AE2:AE43 AE46:AE1048576 AK2:AK43 AK46:AK1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44 I46:N46 O46 P46:R46 I47:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44 I46:N46 O46 P46:R46 I47:R1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC46:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC46:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($G46)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F46:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG44 AM44 AG45 AM45 AG2:AG43 AG46:AG1048576 AM2:AM43 AM46:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG44 AM44 AG45 AM45 AG2:AG43 AG46:AG1048576 AM2:AM43 AM46:AM1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($F46)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F46:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -38873,7 +38270,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>109</v>
       </c>
@@ -61732,8 +61129,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>